--- a/medicine/Psychotrope/Cannabis_en_Roumanie/Cannabis_en_Roumanie.xlsx
+++ b/medicine/Psychotrope/Cannabis_en_Roumanie/Cannabis_en_Roumanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis en Roumanie est illégal à des fins récréatives et médicales. Bien qu'il ait été techniquement légalisé pour un usage médical en 2013, il n'a pas été éliminé du tableau I des drogues à haut risque et, à ce titre, son utilisation est interdite.
-Certaines des premières preuves de l'usage psychoactif du cannabis ont été trouvées en Roumanie, notamment sur les sites archéologiques de Frumușica et Gurbănești[1].
+Certaines des premières preuves de l'usage psychoactif du cannabis ont été trouvées en Roumanie, notamment sur les sites archéologiques de Frumușica et Gurbănești.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Interdiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1928, la Roumanie a établi des lois pour lutter contre les stupéfiants, y compris le haschich et ses préparations[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1928, la Roumanie a établi des lois pour lutter contre les stupéfiants, y compris le haschich et ses préparations.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cannabis médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une loi limitée sur le cannabis médical a été adoptée en 2013, autorisant l'utilisation de dérivés à faible teneur en THC (moins de 0,2 %) de la plante uniquement[3],[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une loi limitée sur le cannabis médical a été adoptée en 2013, autorisant l'utilisation de dérivés à faible teneur en THC (moins de 0,2 %) de la plante uniquement.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Plaidoyer pour la réforme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">USR Tineret est la première organisation de jeunesse d'un parti politique roumain (l'Union sauvez la Roumanie) à soutenir ouvertement la dépénalisation du cannabis[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USR Tineret est la première organisation de jeunesse d'un parti politique roumain (l'Union sauvez la Roumanie) à soutenir ouvertement la dépénalisation du cannabis.
 </t>
         </is>
       </c>
